--- a/cleanup/1/1.xlsx
+++ b/cleanup/1/1.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A125"/>
+  <dimension ref="A1:A126"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -398,12 +398,12 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>ВСЕГДА СИЯЮЩИЙ РЕЗУЛЬТАТ</v>
+        <v>CleanUp</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>ОЧИЩАЕТ ЛЮБЫЕ ПОВЕРХНОСТИ, НЕ ПОВРЕЖДАЯ ИХ</v>
+        <v>ВСЕГДА СИЯЮЩИЙ РЕЗУЛЬТАТ</v>
       </c>
     </row>
     <row r="6">
@@ -868,147 +868,152 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>ВСЕГДА СИЯЮЩИЙ РЕЗУЛЬТАТ</v>
+        <v>CleanUp</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Активный кислород пены моментально растворяет молекулы въевшейся грязи</v>
+        <v>ВСЕГДА СИЯЮЩИЙ РЕЗУЛЬТАТ</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Легко удалит пятна жира или грязи</v>
+        <v>Активный кислород пены моментально растворяет молекулы въевшейся грязи</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v xml:space="preserve">Эффективно от налета и ржавчины </v>
+        <v>Легко удалит пятна жира или грязи</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Сильный антигрибковый эффект</v>
+        <v xml:space="preserve">Эффективно от налета и ржавчины </v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Обычная цена:</v>
+        <v>Сильный антигрибковый эффект</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>2580</v>
+        <v>Обычная цена:</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>РУБ</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v xml:space="preserve">Скидка </v>
+        <v>РУБ</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>-50%</v>
+        <v xml:space="preserve">Скидка </v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Цена по акции:</v>
+        <v>-50%</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>1290</v>
+        <v>Цена по акции:</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>РУБ</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v xml:space="preserve">До конца </v>
+        <v>РУБ</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>акции</v>
+        <v xml:space="preserve">До конца </v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Часов</v>
+        <v>акции</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Минут</v>
+        <v>Часов</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Секунд</v>
+        <v>Минут</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Заказать со скидкой</v>
+        <v>Секунд</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v xml:space="preserve">Осталось товара по акции: </v>
+        <v>Заказать со скидкой</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>20 шт.</v>
+        <v xml:space="preserve">Осталось товара по акции: </v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>GADGET SHOP, Calle de Boldano, 33, 28027 Madrid, Span</v>
+        <v>20 шт.</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Политика конфиденциальности</v>
+        <v>GADGET SHOP, Calle de Boldano, 33, 28027 Madrid, Span</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Введите ваше имя</v>
+        <v>Политика конфиденциальности</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Введите ваш телефон</v>
+        <v>Введите ваше имя</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Введите ваше имя</v>
+        <v>Введите ваш телефон</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Введите ваш телефон</v>
+        <v>Введите ваше имя</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
+        <v>Введите ваш телефон</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
         <v>Уникальное средство без проблем очистит любые поверхности от въевшейся грязи, подарит красивый блеск, обработанные изделия будут выглядеть после обработки как новые!</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A125"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A126"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1027,7 +1032,7 @@
 &lt;script async="true" type="text/javascript" src="js/jquery-plugins.js"&gt;&lt;/script&gt;
 		&lt;meta charset="utf-8"&gt;
 		&lt;meta name="viewport" content="width=480"&gt;
-		&lt;meta name="description" content="Уникальное средство без проблем очистит любые поверхности от въевшейся грязи, подарит красивый блеск, обработанные изделия будут выглядеть после обработки как новые!" data-description-index="125" data-description="Уникальное средство без проблем очистит любые поверхности от въевшейся грязи, подарит красивый блеск, обработанные изделия будут выглядеть после обработки как новые!"&gt;
+		&lt;meta name="description" content="Уникальное средство без проблем очистит любые поверхности от въевшейся грязи, подарит красивый блеск, обработанные изделия будут выглядеть после обработки как новые!" data-description-index="126" data-description="Уникальное средство без проблем очистит любые поверхности от въевшейся грязи, подарит красивый блеск, обработанные изделия будут выглядеть после обработки как новые!"&gt;
 		&lt;link rel="shortcut icon" href="favicon.png" type="image/x-icon"&gt;
 		&lt;!-- &lt;script type="text/javascript" src="js/prices.js"&gt;&lt;/script&gt; --&gt;
 		&lt;link rel="stylesheet" href="css/owl.carousel.min.css"&gt;
@@ -1041,8 +1046,8 @@
 				&lt;/span&gt;&lt;/div&gt;
 				&lt;div class="image_block"&gt;
 					&lt;img src="img/offer.jpg"&gt;
-					&lt;h1&gt;&lt;span data-translate="4"&gt;ВСЕГДА СИЯЮЩИЙ РЕЗУЛЬТАТ&lt;/span&gt;&lt;/h1&gt;
-					&lt;span class="trigger__line"&gt;&lt;span data-translate="5"&gt;ОЧИЩАЕТ ЛЮБЫЕ ПОВЕРХНОСТИ, НЕ ПОВРЕЖДАЯ ИХ&lt;/span&gt;&lt;/span&gt;
+					&lt;h1&gt;&lt;span data-translate="4"&gt;CleanUp&lt;/span&gt;&lt;/h1&gt;
+					&lt;span class="trigger__line"&gt;&lt;span data-translate="5"&gt;ВСЕГДА СИЯЮЩИЙ РЕЗУЛЬТАТ&lt;/span&gt;&lt;/span&gt;
 				&lt;/div&gt;
 				&lt;div class="offer_bull"&gt;
 					&lt;ul class="clearfix"&gt;
@@ -1074,13 +1079,13 @@
 				&lt;/div&gt;
 				&lt;div class="order_block"&gt;
 					&lt;div class="timer_block clearfix"&gt;
-						&lt;div class="time"&gt;&lt;span data-translate="18"&gt;До конца &lt;/span&gt;&lt;span&gt;&lt;span data-translate=</v>
+						&lt;div class="time"&gt;&lt;span data-translate="18"&gt;До конца &lt;/span&gt;&lt;span&gt;&lt;span data-translate="19"&gt;акции&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;
+				</v>
       </c>
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" t="str" xml:space="preserve">
-        <v xml:space="preserve">"19"&gt;акции&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;
-						&lt;div class="timer clearfix"&gt;
+        <v xml:space="preserve">		&lt;div class="timer clearfix"&gt;
 							&lt;div class="timer_item"&gt;
 								&lt;div class="count hours"&gt;&lt;/div&gt;
 								&lt;div class="text"&gt;&lt;span data-translate="20"&gt;Часов&lt;/span&gt;&lt;/div&gt;
@@ -1096,8 +1101,8 @@
 						&lt;/div&gt;
 					&lt;/div&gt;
 					&lt;form class="m1-form" action method="post"&gt;
-						&lt;input type="text" required name="name" placeholder="Введите ваше имя" data-placeholder="121" data-placeholder-translate="Введите ваше имя"&gt;
-						&lt;input type="tel" required name="phone" id="phone" placeholder="Введите ваш телефон" data-placeholder="122" data-placeholder-translate="Введите ваш телефон"&gt;
+						&lt;input type="text" required name="name" placeholder="Введите ваше имя" data-placeholder="122" data-placeholder-translate="Введите ваше имя"&gt;
+						&lt;input type="tel" required name="phone" id="phone" placeholder="Введите ваш телефон" data-placeholder="123" data-placeholder-translate="Введите ваш телефон"&gt;
 						&lt;button type="submit" class="button-m"&gt;&lt;span data-translate="23"&gt;Заказать со скидкой&lt;/span&gt;&lt;/button&gt;
 					&lt;/form&gt;
 					&lt;div class="products_count"&gt;&lt;span data-translate="24"&gt;Осталось товара по акции: &lt;/span&gt;&lt;span&gt;&lt;span data-translate="25"&gt;20 шт.&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;
@@ -1139,13 +1144,13 @@
 						&lt;h4&gt;&lt;span data-translate="41"&gt;Для дачи и сада&lt;/span&gt;&lt;/h4&gt;
 						&lt;ul&gt;
 							&lt;li&gt;&lt;span data-translate="42"&gt;Удалит коррозию и ржавый налет с инструментов &lt;/span&gt;&lt;/li&gt;
-							&lt;li&gt;&lt;span data-translate="43"&gt;Отмоет садовую технику </v>
+							&lt;li&gt;&lt;span data-translate="43"&gt;Отмоет садовую технику и инструмент от грязи&lt;/span&gt;&lt;/li&gt;
+	</v>
       </c>
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" t="str" xml:space="preserve">
-        <v xml:space="preserve">и инструмент от грязи&lt;/span&gt;&lt;/li&gt;
-						&lt;/ul&gt;
+        <v xml:space="preserve">					&lt;/ul&gt;
 					&lt;/li&gt;
 					&lt;li&gt;
 						&lt;img src="img/s2_img5.jpg" alt&gt;
@@ -1208,14 +1213,14 @@
 			&lt;/section&gt;
 			&lt;section class="sect5"&gt;
 				&lt;h2 class="title"&gt;&lt;span&gt;&lt;span data-translate="63"&gt;Безопасное&lt;/span&gt;&lt;/span&gt;&lt;span data-translate="64"&gt;удаление любых пятен&lt;/span&gt;&lt;/h2&gt;
-				&lt;ul class="li</v>
+				&lt;ul class="list_4"&gt;
+					&lt;li&gt;
+						&lt;img src="im</v>
       </c>
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4" t="str" xml:space="preserve">
-        <v xml:space="preserve">st_4"&gt;
-					&lt;li&gt;
-						&lt;img src="img/gif_1.gif" alt&gt;
+        <v xml:space="preserve">g/gif_1.gif" alt&gt;
 						&lt;h4&gt;&lt;span data-translate="65"&gt;Гарантия результата&lt;/span&gt;&lt;/h4&gt;
 						&lt;p&gt;&lt;span data-translate="66"&gt;СleanUp отмывает даже самые застарелые пятна с любых поверхностей&lt;/span&gt;&lt;/p&gt;
 					&lt;/li&gt;
@@ -1264,14 +1269,14 @@
 					&lt;div class="rev_item"&gt;
 						&lt;div class="rev_author"&gt;
 							&lt;img src="img/rev_author3.jpg" alt&gt;
-							&lt;span&gt;&lt;span data-translate="83"&gt;Фролова Людмила&lt;/span&gt;&lt;/span&gt;&lt;span data-translate="84"&gt;36 ле</v>
+							&lt;span&gt;&lt;span data-translate="83"&gt;Фролова Людмила&lt;/span&gt;&lt;/span&gt;&lt;span data-translate="84"&gt;36 лет
+						&lt;/span&gt;&lt;/div&gt;
+						&lt;img sr</v>
       </c>
     </row>
     <row r="5" xml:space="preserve">
       <c r="A5" t="str" xml:space="preserve">
-        <v xml:space="preserve">т
-						&lt;/span&gt;&lt;/div&gt;
-						&lt;img src="img/rev_img3.jpg" alt&gt;
+        <v xml:space="preserve">c="img/rev_img3.jpg" alt&gt;
 						&lt;div class="rev_text"&gt;
 							&lt;p&gt;&lt;span data-translate="85"&gt;CleanUp помог мне отмыть множество предметов в доме. Старая сковородка теперь блестит как новая, вся кухня теперь благоухает чистотой. Даже плита, на которой я уже 2 года не могла оттереть въевшиеся пятна, теперь идеально белая и чистая. Также порадовало то, что в составе отсутствуют вредные вещества. Я жуткий аллергик, но с CleanUp работаю без перчаток, так как средство абсолютно безопасное.&lt;/span&gt;&lt;/p&gt;
 						&lt;/div&gt;
@@ -1303,70 +1308,71 @@
 				&lt;/span&gt;&lt;/div&gt;
 				&lt;div class="image_block"&gt;
 					&lt;img src="img/offer.jpg"&gt;
-					&lt;h1&gt;&lt;span data-translate="98"&gt;ВСЕГДА СИЯЮЩИЙ РЕЗУЛЬТАТ&lt;/span&gt;&lt;/h1&gt;
+					&lt;h1&gt;&lt;span data-translate="98"&gt;CleanUp&lt;/span&gt;&lt;/h1&gt;
+					&lt;span class="trigger__line"&gt;&lt;span data-translate="99"&gt;ВСЕГДА СИЯЮЩИЙ РЕЗУЛЬТАТ&lt;/span&gt;&lt;/span&gt;
 				&lt;/div&gt;
 				&lt;div class="offer_bull"&gt;
 					&lt;ul class="clearfix"&gt;
-						&lt;h3&gt;&lt;span data-translate="99"&gt;Активный кислород пены моментально растворяет молекулы въевшейся грязи&lt;/span&gt;&lt;/h3&gt;
+						&lt;h3&gt;&lt;span data-translate="100"&gt;Активный кислород пены моментально растворяет молекулы въевшейся грязи&lt;/span&gt;&lt;/h3&gt;
 						&lt;li&gt;
 							&lt;img src="img/offer_ul1.png" alt&gt;
-							&lt;p&gt;&lt;span data-translate="100"&gt;Легко удалит пятна жира или грязи&lt;/span&gt;&lt;/p&gt;
+							&lt;p&gt;&lt;span data-translate="101"&gt;Легко удалит пятна жира или грязи&lt;/span&gt;&lt;/p&gt;
 						&lt;/li&gt;
 						&lt;li&gt;
 							&lt;img src="img/offer_ul2.png" alt&gt;
-							&lt;p&gt;&lt;span data-translate="101"&gt;Эффективно от налета и ржавчины &lt;/span&gt;&lt;/p&gt;
+							&lt;p&gt;&lt;span data-translate="102"&gt;Эффективно от налета и ржавчины &lt;/span&gt;&lt;/p&gt;
 						&lt;/li&gt;
 						&lt;li&gt;
 							&lt;img src="img/offer_ul3.png" alt&gt;
-							&lt;p&gt;&lt;span data-translate="102"&gt;Сильный антигрибковый эффект&lt;/span&gt;&lt;/p&gt;
+							&lt;p&gt;&lt;span data-translate="103"&gt;Сильный антигрибковый эффект&lt;/span&gt;&lt;/p&gt;
 						&lt;/li&gt;
 					&lt;/ul&gt;
 				&lt;/div&gt;
 				&lt;div class="price_block clearfix"&gt;
 					&lt;div class="price_item old"&gt;
-						&lt;div class="text"&gt;&lt;span data-translate="103"&gt;Обычная цена:&lt;/span&gt;&lt;/div&gt;
-						&lt;div class="value"&gt;&lt;span class="price_old9209"&gt;&lt;span data-translate="104"&gt;2580&lt;/span&gt;&lt;/span&gt; &lt;small class="price_currency"&gt;&lt;span data-translate="105"&gt;РУБ&lt;/span&gt;&lt;/small&gt;&lt;/div&gt;
+						&lt;div class="text"&gt;&lt;span data-translate="104"&gt;Обычная цена:&lt;/span&gt;&lt;/div&gt;
+						&lt;div class="value"&gt;&lt;span class="price_old9209"&gt;&lt;span data-translate="105"&gt;2580&lt;/span&gt;&lt;/span&gt; &lt;small class="price_currency"&gt;&lt;span data-translate="106"&gt;РУБ&lt;/span&gt;&lt;/small&gt;&lt;/div&gt;
 					&lt;/div&gt;
-					&lt;div class="discount"&gt;&lt;span data-translate="106"&gt;Скидка &lt;/span&gt;&lt;b&gt;&lt;span data-translate="107"&gt;-50%&lt;</v>
+					&lt;div class="discount"&gt;&lt;span data-translate="107"&gt;Ск</v>
       </c>
     </row>
     <row r="6" xml:space="preserve">
       <c r="A6" t="str" xml:space="preserve">
-        <v xml:space="preserve">/span&gt;&lt;/b&gt;&lt;/div&gt;
+        <v xml:space="preserve">идка &lt;/span&gt;&lt;b&gt;&lt;span data-translate="108"&gt;-50%&lt;/span&gt;&lt;/b&gt;&lt;/div&gt;
 					&lt;div class="price_item new"&gt;
-						&lt;div class="text"&gt;&lt;span data-translate="108"&gt;Цена по акции:&lt;/span&gt;&lt;/div&gt;
-						&lt;div class="value"&gt;&lt;span class="price_only9209"&gt;&lt;span data-translate="109"&gt;1290&lt;/span&gt;&lt;/span&gt; &lt;small class="price_currency"&gt;&lt;span data-translate="110"&gt;РУБ&lt;/span&gt;&lt;/small&gt;&lt;/div&gt;
+						&lt;div class="text"&gt;&lt;span data-translate="109"&gt;Цена по акции:&lt;/span&gt;&lt;/div&gt;
+						&lt;div class="value"&gt;&lt;span class="price_only9209"&gt;&lt;span data-translate="110"&gt;1290&lt;/span&gt;&lt;/span&gt; &lt;small class="price_currency"&gt;&lt;span data-translate="111"&gt;РУБ&lt;/span&gt;&lt;/small&gt;&lt;/div&gt;
 					&lt;/div&gt;
 				&lt;/div&gt;
 				&lt;div class="order_block"&gt;
 					&lt;div class="timer_block clearfix"&gt;
-						&lt;div class="time"&gt;&lt;span data-translate="111"&gt;До конца &lt;/span&gt;&lt;span&gt;&lt;span data-translate="112"&gt;акции&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;
+						&lt;div class="time"&gt;&lt;span data-translate="112"&gt;До конца &lt;/span&gt;&lt;span&gt;&lt;span data-translate="113"&gt;акции&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;
 						&lt;div class="timer clearfix"&gt;
 							&lt;div class="timer_item"&gt;
 								&lt;div class="count hours"&gt;&lt;/div&gt;
-								&lt;div class="text"&gt;&lt;span data-translate="113"&gt;Часов&lt;/span&gt;&lt;/div&gt;
+								&lt;div class="text"&gt;&lt;span data-translate="114"&gt;Часов&lt;/span&gt;&lt;/div&gt;
 							&lt;/div&gt;
 							&lt;div class="timer_item"&gt;
 								&lt;div class="count minutes"&gt;&lt;/div&gt;
-								&lt;div class="text"&gt;&lt;span data-translate="114"&gt;Минут&lt;/span&gt;&lt;/div&gt;
+								&lt;div class="text"&gt;&lt;span data-translate="115"&gt;Минут&lt;/span&gt;&lt;/div&gt;
 							&lt;/div&gt;
 							&lt;div class="timer_item"&gt;
 								&lt;div class="count seconds"&gt;&lt;/div&gt;
-								&lt;div class="text"&gt;&lt;span data-translate="115"&gt;Секунд&lt;/span&gt;&lt;/div&gt;
+								&lt;div class="text"&gt;&lt;span data-translate="116"&gt;Секунд&lt;/span&gt;&lt;/div&gt;
 							&lt;/div&gt;
 						&lt;/div&gt;
 					&lt;/div&gt;
 					&lt;form id="order_form" class="m1-form" action method="post"&gt;
-						&lt;input type="text" required name="name" placeholder="Введите ваше имя" data-placeholder="123" data-placeholder-translate="Введите ваше имя"&gt;
-						&lt;input type="tel" required name="phone" id="phone1" placeholder="Введите ваш телефон" data-placeholder="124" data-placeholder-translate="Введите ваш телефон"&gt;
-						&lt;button type="submit" class="button-m"&gt;&lt;span data-translate="116"&gt;Заказать со скидкой&lt;/span&gt;&lt;/button&gt;
+						&lt;input type="text" required name="name" placeholder="Введите ваше имя" data-placeholder="124" data-placeholder-translate="Введите ваше имя"&gt;
+						&lt;input type="tel" required name="phone" id="phone1" placeholder="Введите ваш телефон" data-placeholder="125" data-placeholder-translate="Введите ваш телефон"&gt;
+						&lt;button type="submit" class="button-m"&gt;&lt;span data-translate="117"&gt;Заказать со скидкой&lt;/span&gt;&lt;/button&gt;
 					&lt;/form&gt;
-					&lt;div class="products_count"&gt;&lt;span data-translate="117"&gt;Осталось товара по акции: &lt;/span&gt;&lt;span&gt;&lt;span data-translate="118"&gt;20 шт.&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;
+					&lt;div class="products_count"&gt;&lt;span data-translate="118"&gt;Осталось товара по акции: &lt;/span&gt;&lt;span&gt;&lt;span data-translate="119"&gt;20 шт.&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;
 				&lt;/div&gt;
 			&lt;/section&gt;
 			&lt;footer class="footer_section"&gt;
-				&lt;p class="footer_text"&gt;&lt;span data-translate="119"&gt;GADGET SHOP, Calle de Boldano, 33, 28027 Madrid, Span&lt;/span&gt;&lt;/p&gt;
-				&lt;a href="/privacypolicy" target="_blank"&gt;&lt;span data-translate="120"&gt;Политика конфиденциальности&lt;/span&gt;&lt;/a&gt;
+				&lt;p class="footer_text"&gt;&lt;span data-translate="120"&gt;GADGET SHOP, Calle de Boldano, 33, 28027 Madrid, Span&lt;/span&gt;&lt;/p&gt;
+				&lt;a href="/privacypolicy" target="_blank"&gt;&lt;span data-translate="121"&gt;Политика конфиденциальности&lt;/span&gt;&lt;/a&gt;
 			&lt;/footer&gt;
 			&lt;!-- /footer --&gt;
 		&lt;/div&gt;
